--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2273843.104379789</v>
+        <v>-2276702.936615058</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.269642986403483</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>149.8050609596331</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="U2" t="n">
-        <v>165.1725371760946</v>
       </c>
       <c r="V2" t="n">
         <v>187.52558716632</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>56.10262951780879</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>116.3937254205881</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.2604512953581</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>13.64695781595727</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>309.9780130577771</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476448</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>80.79957872837601</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.609705285181384</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>121.2160923118265</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075478</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.478189731062997</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>32.91990238036927</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>162.2298499611389</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5978353037444</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017892827655771</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.2023528106944</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.0957276549043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>255.6347739480587</v>
+        <v>125.6249368300312</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>90.21697956236623</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6668577520929</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>120.2569886604966</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>149.7846058143976</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.9025715636457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>107.5419779170877</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2141,13 +2141,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>120.7871326503968</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>183.1813225058491</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>75.00788511618377</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>106.9977768135424</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4031,13 +4031,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.0020469733056</v>
+        <v>219.9445352387415</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0020469733056</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
         <v>15.0020469733056</v>
@@ -4358,22 +4358,22 @@
         <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487952</v>
+        <v>598.7841052717113</v>
       </c>
       <c r="U2" t="n">
-        <v>393.8416170062753</v>
+        <v>409.3643202552264</v>
       </c>
       <c r="V2" t="n">
-        <v>204.4218319897905</v>
+        <v>219.9445352387415</v>
       </c>
       <c r="W2" t="n">
-        <v>204.4218319897905</v>
+        <v>219.9445352387415</v>
       </c>
       <c r="X2" t="n">
-        <v>15.0020469733056</v>
+        <v>219.9445352387415</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.0020469733056</v>
+        <v>219.9445352387415</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>693.4330259200186</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>518.9799966388916</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F3" t="n">
         <v>64.27357399906981</v>
@@ -4410,7 +4410,7 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
@@ -4419,7 +4419,7 @@
         <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4440,19 +4440,19 @@
         <v>750.10234866528</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487952</v>
+        <v>693.4330259200186</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323103</v>
+        <v>693.4330259200186</v>
       </c>
       <c r="X3" t="n">
-        <v>253.6933590155547</v>
+        <v>693.4330259200186</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>693.4330259200186</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.5185539410271</v>
+        <v>357.477972757606</v>
       </c>
       <c r="C4" t="n">
-        <v>426.5185539410271</v>
+        <v>357.477972757606</v>
       </c>
       <c r="D4" t="n">
-        <v>426.5185539410271</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5185539410271</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="F4" t="n">
-        <v>426.5185539410271</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
@@ -4510,28 +4510,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>615.938338957512</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S4" t="n">
-        <v>615.938338957512</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="T4" t="n">
-        <v>615.938338957512</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410271</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V4" t="n">
-        <v>426.5185539410271</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W4" t="n">
-        <v>426.5185539410271</v>
+        <v>357.477972757606</v>
       </c>
       <c r="X4" t="n">
-        <v>426.5185539410271</v>
+        <v>357.477972757606</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.5185539410271</v>
+        <v>357.477972757606</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.966296311716</v>
+        <v>1190.885360395742</v>
       </c>
       <c r="C5" t="n">
-        <v>749.0037793713047</v>
+        <v>821.9228434553306</v>
       </c>
       <c r="D5" t="n">
-        <v>749.0037793713047</v>
+        <v>463.6571448485801</v>
       </c>
       <c r="E5" t="n">
-        <v>363.2155267730604</v>
+        <v>463.6571448485801</v>
       </c>
       <c r="F5" t="n">
-        <v>356.270026023857</v>
+        <v>456.7116440993766</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7220024936557</v>
+        <v>444.1636205691754</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489111</v>
+        <v>131.0545164704106</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489093</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121478</v>
+        <v>93.38580827121393</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235838</v>
+        <v>238.2046462235821</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190631</v>
+        <v>454.7669823190601</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643071</v>
+        <v>727.4037457643028</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453889</v>
+        <v>1009.065865453883</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.69615683193</v>
+        <v>1261.696156831923</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855774</v>
+        <v>1442.809264855766</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744547</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744547</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744547</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744547</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744547</v>
       </c>
       <c r="V5" t="n">
-        <v>1199.582032400985</v>
+        <v>1199.582032400976</v>
       </c>
       <c r="W5" t="n">
-        <v>1117.966296311716</v>
+        <v>1199.582032400976</v>
       </c>
       <c r="X5" t="n">
-        <v>1117.966296311716</v>
+        <v>1199.582032400976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.966296311716</v>
+        <v>1190.885360395742</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436.7621732457769</v>
+        <v>462.6389830761752</v>
       </c>
       <c r="C6" t="n">
-        <v>314.3216759611037</v>
+        <v>288.1859537950482</v>
       </c>
       <c r="D6" t="n">
-        <v>314.3216759611037</v>
+        <v>288.1859537950482</v>
       </c>
       <c r="E6" t="n">
-        <v>314.3216759611037</v>
+        <v>128.9484987895927</v>
       </c>
       <c r="F6" t="n">
-        <v>167.7871179879886</v>
+        <v>128.9484987895927</v>
       </c>
       <c r="G6" t="n">
-        <v>30.61289839489111</v>
+        <v>128.9484987895927</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489093</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489093</v>
       </c>
       <c r="J6" t="n">
-        <v>69.40680572833278</v>
+        <v>49.18216652275221</v>
       </c>
       <c r="K6" t="n">
-        <v>179.2994673532844</v>
+        <v>387.2759822117713</v>
       </c>
       <c r="L6" t="n">
-        <v>373.386253659951</v>
+        <v>581.3627685184371</v>
       </c>
       <c r="M6" t="n">
-        <v>619.2332469698025</v>
+        <v>827.2097618282876</v>
       </c>
       <c r="N6" t="n">
-        <v>885.9957235677533</v>
+        <v>1093.972238426237</v>
       </c>
       <c r="O6" t="n">
-        <v>1107.811478176124</v>
+        <v>1315.787993034607</v>
       </c>
       <c r="P6" t="n">
-        <v>1266.505110628428</v>
+        <v>1474.48162548691</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744556</v>
+        <v>1530.644919744547</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.644919744556</v>
+        <v>1526.121495773776</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.644919744556</v>
+        <v>1381.617421688723</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.732538930162</v>
+        <v>1348.364995041885</v>
       </c>
       <c r="U6" t="n">
-        <v>1106.611328944465</v>
+        <v>1120.243785056188</v>
       </c>
       <c r="V6" t="n">
-        <v>1106.611328944465</v>
+        <v>885.0916768244449</v>
       </c>
       <c r="W6" t="n">
-        <v>852.3739722162636</v>
+        <v>630.8543200962433</v>
       </c>
       <c r="X6" t="n">
-        <v>644.5224720107308</v>
+        <v>630.8543200962433</v>
       </c>
       <c r="Y6" t="n">
-        <v>436.7621732457769</v>
+        <v>630.8543200962433</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>522.2333496212278</v>
+        <v>632.9030176400153</v>
       </c>
       <c r="C7" t="n">
-        <v>353.2971666933209</v>
+        <v>469.0344823257335</v>
       </c>
       <c r="D7" t="n">
-        <v>353.2971666933209</v>
+        <v>469.0344823257335</v>
       </c>
       <c r="E7" t="n">
-        <v>353.2971666933209</v>
+        <v>469.0344823257335</v>
       </c>
       <c r="F7" t="n">
-        <v>353.2971666933209</v>
+        <v>469.0344823257335</v>
       </c>
       <c r="G7" t="n">
-        <v>184.9143147887874</v>
+        <v>300.6516304212</v>
       </c>
       <c r="H7" t="n">
-        <v>32.65117397838179</v>
+        <v>148.3884896107944</v>
       </c>
       <c r="I7" t="n">
-        <v>32.65117397838179</v>
+        <v>30.61289839489093</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489111</v>
+        <v>30.61289839489093</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983383</v>
+        <v>157.1668774983377</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436928</v>
+        <v>374.6388343436918</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132938</v>
+        <v>614.3216441132922</v>
       </c>
       <c r="N7" t="n">
-        <v>853.7399488058478</v>
+        <v>853.7399488058456</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.86520865046</v>
+        <v>1058.865208650458</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.864622702305</v>
+        <v>1210.864622702302</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086412</v>
+        <v>1232.666058086409</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.666058086412</v>
+        <v>1112.25964110591</v>
       </c>
       <c r="S7" t="n">
-        <v>1232.666058086412</v>
+        <v>1112.25964110591</v>
       </c>
       <c r="T7" t="n">
-        <v>1232.666058086412</v>
+        <v>887.5875058459021</v>
       </c>
       <c r="U7" t="n">
-        <v>1232.666058086412</v>
+        <v>887.5875058459021</v>
       </c>
       <c r="V7" t="n">
-        <v>1232.666058086412</v>
+        <v>632.9030176400153</v>
       </c>
       <c r="W7" t="n">
-        <v>943.2488880494516</v>
+        <v>632.9030176400153</v>
       </c>
       <c r="X7" t="n">
-        <v>715.2593371514342</v>
+        <v>632.9030176400153</v>
       </c>
       <c r="Y7" t="n">
-        <v>522.2333496212278</v>
+        <v>632.9030176400153</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>724.5626859657668</v>
+        <v>979.0278707680238</v>
       </c>
       <c r="C8" t="n">
-        <v>724.5626859657668</v>
+        <v>979.0278707680238</v>
       </c>
       <c r="D8" t="n">
-        <v>724.5626859657668</v>
+        <v>979.0278707680238</v>
       </c>
       <c r="E8" t="n">
-        <v>724.5626859657668</v>
+        <v>593.2396181697795</v>
       </c>
       <c r="F8" t="n">
-        <v>313.5767811761593</v>
+        <v>182.253713380172</v>
       </c>
       <c r="G8" t="n">
-        <v>301.5861399199706</v>
+        <v>170.2630721239833</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1705.262284299218</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1352.493629029104</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029889</v>
+        <v>979.0278707680238</v>
       </c>
       <c r="Y8" t="n">
-        <v>1111.162526029889</v>
+        <v>979.0278707680238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>809.404642243926</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>634.951612962799</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>440.9010965631281</v>
+        <v>508.4654164929053</v>
       </c>
       <c r="L9" t="n">
-        <v>698.4522321231157</v>
+        <v>766.0165520528933</v>
       </c>
       <c r="M9" t="n">
-        <v>1018.359127591625</v>
+        <v>1085.923447521403</v>
       </c>
       <c r="N9" t="n">
-        <v>1361.141651586256</v>
+        <v>1428.705971516035</v>
       </c>
       <c r="O9" t="n">
-        <v>1652.500897840822</v>
+        <v>1720.065217770601</v>
       </c>
       <c r="P9" t="n">
-        <v>1867.009313401723</v>
+        <v>2074.985828260217</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904653</v>
+        <v>2077.331564720449</v>
       </c>
       <c r="T9" t="n">
-        <v>1973.846839276277</v>
+        <v>1882.621243194425</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1882.621243194425</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1647.469134962682</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1393.231778234481</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1185.380278028948</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>977.6199792639941</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.6661428091322</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="C10" t="n">
-        <v>303.6661428091322</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D10" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174231</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1377.190882465731</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>1178.011396849957</v>
       </c>
       <c r="T10" t="n">
-        <v>1364.883672975974</v>
+        <v>1178.011396849957</v>
       </c>
       <c r="U10" t="n">
-        <v>1075.757351949997</v>
+        <v>888.885075823981</v>
       </c>
       <c r="V10" t="n">
-        <v>821.0728637441102</v>
+        <v>634.2005876180941</v>
       </c>
       <c r="W10" t="n">
-        <v>531.6556937071496</v>
+        <v>344.7834175811335</v>
       </c>
       <c r="X10" t="n">
-        <v>303.6661428091322</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="Y10" t="n">
-        <v>303.6661428091322</v>
+        <v>193.4858359504289</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5367,7 +5367,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>369.6410228554028</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>202.4449235702827</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>215.8238677453423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.6145409888043</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.263005819044</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6254,7 +6254,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
@@ -6266,10 +6266,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1092.345997432837</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>923.4098145049301</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>773.2931750925945</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>625.3800815102015</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>478.4901340122913</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>311.2940347271714</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>169.5822035693696</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304624</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304624</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1494.787041406606</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1273.994462263076</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835325</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820186</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820186</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783226</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6865,7 +6865,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,16 +7348,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,7 +7682,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724335</v>
+        <v>34.66253762724386</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.42892849048486</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>230.5062162263315</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>70.12741386431458</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>141.8304999279949</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.1610538257266</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>363.0032487846041</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871032</v>
       </c>
       <c r="V2" t="n">
         <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>32.75273492913618</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>19.50758019582713</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>6.257951202381619</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>179.1866975757016</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829651</v>
+        <v>50775.64226829649</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="K2" t="n">
         <v>60535.99497675043</v>
@@ -26347,7 +26347,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982125</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996505</v>
+        <v>216004.046899648</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960615</v>
+        <v>167084.511296065</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854476</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838275</v>
+        <v>50221.6701083821</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064583</v>
+        <v>59784.02116064663</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.193711796076968e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195959.7647260689</v>
+        <v>195959.7647260688</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307694</v>
+        <v>220711.7529307701</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003228</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,34 +26430,34 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685518</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="M4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994849</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790107</v>
+        <v>72511.97598790089</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793526.8253902313</v>
+        <v>-793886.9084059487</v>
       </c>
       <c r="C6" t="n">
-        <v>-447649.6430784997</v>
+        <v>-447649.6430784977</v>
       </c>
       <c r="D6" t="n">
-        <v>-364529.8724124353</v>
+        <v>-364529.8724124386</v>
       </c>
       <c r="E6" t="n">
-        <v>-656246.4944982767</v>
+        <v>-656281.2324237115</v>
       </c>
       <c r="F6" t="n">
-        <v>-54803.28692401171</v>
+        <v>-54838.02484944741</v>
       </c>
       <c r="G6" t="n">
-        <v>-54803.28692401171</v>
+        <v>-54838.02484944744</v>
       </c>
       <c r="H6" t="n">
-        <v>-54803.28692401174</v>
+        <v>-54838.02484944742</v>
       </c>
       <c r="I6" t="n">
-        <v>-54803.28692401174</v>
+        <v>-54838.02484944745</v>
       </c>
       <c r="J6" t="n">
-        <v>-103868.2316525563</v>
+        <v>-103902.9695779922</v>
       </c>
       <c r="K6" t="n">
-        <v>-105024.9570323945</v>
+        <v>-105059.6949578297</v>
       </c>
       <c r="L6" t="n">
-        <v>-123577.6156146885</v>
+        <v>-123577.6156146893</v>
       </c>
       <c r="M6" t="n">
-        <v>-220939.9750056406</v>
+        <v>-220939.9750056404</v>
       </c>
       <c r="N6" t="n">
-        <v>-63793.59445404266</v>
+        <v>-63793.59445404269</v>
       </c>
       <c r="O6" t="n">
-        <v>-63793.59445404274</v>
+        <v>-63793.59445404281</v>
       </c>
       <c r="P6" t="n">
-        <v>-63793.59445404269</v>
+        <v>-63793.59445404268</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836618</v>
+        <v>716.4483122836599</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361389</v>
+        <v>382.6612299361366</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.49213974509621e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707571</v>
+        <v>167.9783713707552</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540223</v>
+        <v>137.2623522540251</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698189</v>
+        <v>195.1356427698166</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900244</v>
+        <v>159.4537267900277</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698189</v>
+        <v>195.1356427698164</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900243</v>
+        <v>159.4537267900279</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698189</v>
+        <v>195.1356427698166</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900244</v>
+        <v>159.4537267900277</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.572787837754</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>63.63882009657371</v>
       </c>
       <c r="U2" t="n">
-        <v>85.99672338893569</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27512,19 +27512,19 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>176.6979576316165</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>89.37925978288942</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>38.74148390735613</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.8760405206338</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476419</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926214</v>
+        <v>143.3876437926216</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>268.441389989037</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.6282333708722</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>51.49240667648928</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075473</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3389040643703</v>
+        <v>36.33890406437045</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.478189731062741</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>161.0333546258798</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.016971137488895</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.017892827656013</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106942</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443857</v>
+        <v>201.5013289443858</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074074</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.48892569719047</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>48.69203080812431</v>
+        <v>178.7018679261517</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>47.35803433093297</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09636055867085247</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>101.110830073806</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>75.92504957463959</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28861,13 +28861,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.346579990370498e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30751,13 +30751,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235824</v>
+        <v>2.880194220235817</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799014</v>
+        <v>29.49678905799006</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756417</v>
+        <v>111.0386876756414</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997405</v>
+        <v>244.4528841997399</v>
       </c>
       <c r="K5" t="n">
-        <v>366.371505542323</v>
+        <v>366.371505542322</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098652</v>
+        <v>454.516249409864</v>
       </c>
       <c r="M5" t="n">
-        <v>505.736903373984</v>
+        <v>505.7369033739827</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022291</v>
+        <v>513.9202552022277</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247591</v>
+        <v>485.2803239247578</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126871</v>
+        <v>414.175529112686</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004916</v>
+        <v>311.0285736004907</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868888</v>
+        <v>180.9230001868883</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362391</v>
+        <v>65.63242579362374</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908233</v>
+        <v>12.60805019908229</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188659</v>
+        <v>0.2304155376188653</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044103</v>
+        <v>1.541039766044099</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574173</v>
+        <v>14.88319984574169</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704477</v>
+        <v>53.05772878704463</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594562</v>
+        <v>145.5944631594559</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844111</v>
+        <v>248.8441274844104</v>
       </c>
       <c r="L6" t="n">
-        <v>334.601638675497</v>
+        <v>334.6016386754961</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945957</v>
+        <v>390.4643301945946</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519704</v>
+        <v>400.7987591519694</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306774</v>
+        <v>366.6525622306764</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510007</v>
+        <v>294.2710058509999</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462613</v>
+        <v>196.7123743462608</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158039</v>
+        <v>95.67964442158014</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963496</v>
+        <v>28.62413775963488</v>
       </c>
       <c r="T6" t="n">
-        <v>6.2114716885725</v>
+        <v>6.211471688572483</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344805</v>
+        <v>0.1013841951344802</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970538</v>
+        <v>1.291955972970534</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513806</v>
+        <v>11.48666310513803</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351399</v>
+        <v>38.85263962351389</v>
       </c>
       <c r="J7" t="n">
-        <v>91.341287289017</v>
+        <v>91.34128728901676</v>
       </c>
       <c r="K7" t="n">
-        <v>150.101793950577</v>
+        <v>150.1017939505766</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178198</v>
+        <v>192.0786180178193</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902816</v>
+        <v>202.5199712902811</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273916</v>
+        <v>197.7044990273911</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522357</v>
+        <v>182.6121042522352</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036366</v>
+        <v>156.2562024036362</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548329</v>
+        <v>108.1836951548326</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647525</v>
+        <v>58.09103856647509</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258654</v>
+        <v>22.51526909258648</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874114</v>
+        <v>5.520175520874099</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839305</v>
+        <v>0.07047032579839285</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305422</v>
+        <v>63.40697967305357</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973425</v>
+        <v>146.2816544973415</v>
       </c>
       <c r="L5" t="n">
-        <v>218.749834439878</v>
+        <v>218.7498344398768</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467113</v>
+        <v>275.3906701467099</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056382</v>
+        <v>284.5071916056368</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030724</v>
+        <v>255.1821125030711</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574176</v>
+        <v>182.9425333574165</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604211</v>
+        <v>88.72288372604126</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.18576498327441</v>
+        <v>18.75683649278918</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100521</v>
+        <v>341.5089047363829</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956228</v>
+        <v>196.047258895622</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725774</v>
+        <v>248.3302962725763</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686372</v>
+        <v>269.457047068636</v>
       </c>
       <c r="O6" t="n">
-        <v>224.056317786233</v>
+        <v>224.0563177862319</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366704</v>
+        <v>160.2965984366696</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8078879960889</v>
+        <v>56.73060026023924</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8323021246941</v>
+        <v>127.8323021246937</v>
       </c>
       <c r="L7" t="n">
-        <v>219.6686432781359</v>
+        <v>219.6686432781354</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1038482521222</v>
+        <v>242.1038482521217</v>
       </c>
       <c r="N7" t="n">
-        <v>241.8366714066202</v>
+        <v>241.8366714066196</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662754</v>
+        <v>207.1972321662749</v>
       </c>
       <c r="P7" t="n">
-        <v>153.5347616685301</v>
+        <v>153.5347616685297</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.02165190313855</v>
+        <v>22.02165190313826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>228.8054610813133</v>
+        <v>423.1432842295777</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>358.5056671612282</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>94.41818044892932</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>228.3679864663302</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
